--- a/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1710"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
         <v>1</v>
@@ -95717,7 +95717,7 @@
         <v>22</v>
       </c>
       <c r="O1701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1701" t="n">
         <v>0</v>
@@ -96229,7 +96229,711 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45442.42708333334</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>1166.150024414062</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>1174.75</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>1164.550048828125</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>1170.75</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>1170.75</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>74125</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45442.46875</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>1171.349975585938</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>1171.75</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>1164.199951171875</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>1164.650024414062</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>1164.650024414062</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>62280</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45442.51041666666</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>1164.650024414062</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>1173.199951171875</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>1164.25</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>1170.5</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>1170.5</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>67159</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45442.55208333334</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>1170.449951171875</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>1171.849975585938</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>1164.550048828125</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>1165.400024414062</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>1165.400024414062</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>99295</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45442.59375</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>1165.400024414062</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>1174.800048828125</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>1165</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>1170.449951171875</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>1170.449951171875</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>305480</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45442.63541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>1169.199951171875</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>1171.5</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>1169</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>1169</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>1169</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>65943</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>1173</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>1179.900024414062</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>1168.599975585938</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>1172.050048828125</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>1172.050048828125</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>1172.800048828125</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>1175.349975585938</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>1168.099975585938</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>1173.699951171875</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>1173.699951171875</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>82655</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45443.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>1173.650024414062</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>1179.050048828125</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>1172.949951171875</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>1176.349975585938</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>1176.349975585938</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>78801</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45443.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>1176.050048828125</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>1168.599975585938</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>1173.699951171875</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>1173.699951171875</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>111612</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45443.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>1173.949951171875</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>1177.5</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>1172.699951171875</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>1177</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>1177</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>99868</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45443.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>1177.849975585938</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>1153.349975585938</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>1155.199951171875</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>1155.199951171875</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>936993</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45443.63541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>1155.25</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>1167</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>1154.949951171875</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>1159.400024414062</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>1159.400024414062</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>761532</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
@@ -96285,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96339,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>2</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96393,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96447,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96501,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96555,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96609,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96663,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96717,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96771,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96825,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96879,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96933,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1710"/>
+  <dimension ref="A1:R1714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96229,7 +96229,225 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>1180.25</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>1181.199951171875</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>1166.5</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>1173.900024414062</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>1173.900024414062</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>299429</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>1173.949951171875</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>1175.900024414062</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>1170.349975585938</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>1174.550048828125</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>1174.550048828125</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>101595</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>1174.599975585938</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>1179</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>1172.050048828125</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>1178.849975585938</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>1178.849975585938</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>98949</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>1178.650024414062</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>1178.800048828125</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>1176.150024414062</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>1177.400024414062</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>1177.400024414062</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>7827</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1714"/>
+  <dimension ref="A1:R1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96285,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96339,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96393,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96447,7 +96453,117 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>1175.949951171875</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>1182.900024414062</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>1175.150024414062</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>1182.449951171875</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>1182.449951171875</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>300142</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>1182.449951171875</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>1183.349975585938</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>1175.449951171875</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>1181.099975585938</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>1181.099975585938</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>110909</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
@@ -96509,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96563,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96569,6 +96569,330 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>1181.099975585938</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>1187.900024414062</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>1152.300048828125</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>1183.949951171875</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>1183.949951171875</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>392806</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>1183.949951171875</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>1192.400024414062</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>1161.800048828125</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>1163.400024414062</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>1163.400024414062</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>629659</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45447.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>1161.099975585938</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>1185.150024414062</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>1154.550048828125</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>1157.099975585938</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>1157.099975585938</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>281712</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45447.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>1156.449951171875</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>1195.900024414062</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>1136.300048828125</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>1195</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>1195</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>308847</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>1194.900024414062</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>1234.900024414062</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>1191.150024414062</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>1206.25</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>1206.25</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>690160</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>1206.25</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>1207</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>1199.699951171875</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>1202.800048828125</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>1202.800048828125</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>136706</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
+++ b/stock_historical_data/60m/MCDOWELL-N.NS.xlsx
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>1</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96337,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96391,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96445,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96499,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96553,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
